--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Serpine2-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.35605248196005</v>
+        <v>1.476790666666667</v>
       </c>
       <c r="H2">
-        <v>1.35605248196005</v>
+        <v>4.430372</v>
       </c>
       <c r="I2">
-        <v>0.01845745188807812</v>
+        <v>0.01966406119907831</v>
       </c>
       <c r="J2">
-        <v>0.01845745188807812</v>
+        <v>0.0196640611990783</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>9.599583210949675</v>
+        <v>34.90512539335511</v>
       </c>
       <c r="R2">
-        <v>9.599583210949675</v>
+        <v>314.146128540196</v>
       </c>
       <c r="S2">
-        <v>0.0004093401836797305</v>
+        <v>0.001342631538287784</v>
       </c>
       <c r="T2">
-        <v>0.0004093401836797305</v>
+        <v>0.001342631538287783</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.35605248196005</v>
+        <v>1.476790666666667</v>
       </c>
       <c r="H3">
-        <v>1.35605248196005</v>
+        <v>4.430372</v>
       </c>
       <c r="I3">
-        <v>0.01845745188807812</v>
+        <v>0.01966406119907831</v>
       </c>
       <c r="J3">
-        <v>0.01845745188807812</v>
+        <v>0.0196640611990783</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>245.3289250480546</v>
+        <v>267.725004296081</v>
       </c>
       <c r="R3">
-        <v>245.3289250480546</v>
+        <v>2409.525038664728</v>
       </c>
       <c r="S3">
-        <v>0.01046118201533739</v>
+        <v>0.01029808746725145</v>
       </c>
       <c r="T3">
-        <v>0.01046118201533739</v>
+        <v>0.01029808746725145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.35605248196005</v>
+        <v>1.476790666666667</v>
       </c>
       <c r="H4">
-        <v>1.35605248196005</v>
+        <v>4.430372</v>
       </c>
       <c r="I4">
-        <v>0.01845745188807812</v>
+        <v>0.01966406119907831</v>
       </c>
       <c r="J4">
-        <v>0.01845745188807812</v>
+        <v>0.0196640611990783</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>137.1812126101034</v>
+        <v>164.0722498866342</v>
       </c>
       <c r="R4">
-        <v>137.1812126101034</v>
+        <v>1476.650248979708</v>
       </c>
       <c r="S4">
-        <v>0.005849606335322623</v>
+        <v>0.006311066778106051</v>
       </c>
       <c r="T4">
-        <v>0.005849606335322623</v>
+        <v>0.00631106677810605</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.35605248196005</v>
+        <v>1.476790666666667</v>
       </c>
       <c r="H5">
-        <v>1.35605248196005</v>
+        <v>4.430372</v>
       </c>
       <c r="I5">
-        <v>0.01845745188807812</v>
+        <v>0.01966406119907831</v>
       </c>
       <c r="J5">
-        <v>0.01845745188807812</v>
+        <v>0.0196640611990783</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>40.74259201385007</v>
+        <v>44.51495915243289</v>
       </c>
       <c r="R5">
-        <v>40.74259201385007</v>
+        <v>400.634632371896</v>
       </c>
       <c r="S5">
-        <v>0.001737323353738378</v>
+        <v>0.001712275415433021</v>
       </c>
       <c r="T5">
-        <v>0.001737323353738378</v>
+        <v>0.001712275415433021</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.1019238833769</v>
+        <v>44.80640933333333</v>
       </c>
       <c r="H6">
-        <v>44.1019238833769</v>
+        <v>134.419228</v>
       </c>
       <c r="I6">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="J6">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>312.2003710870519</v>
+        <v>1059.035225172511</v>
       </c>
       <c r="R6">
-        <v>312.2003710870519</v>
+        <v>9531.317026552602</v>
       </c>
       <c r="S6">
-        <v>0.01331267768999433</v>
+        <v>0.04073596864215832</v>
       </c>
       <c r="T6">
-        <v>0.01331267768999433</v>
+        <v>0.04073596864215832</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>44.1019238833769</v>
+        <v>44.80640933333333</v>
       </c>
       <c r="H7">
-        <v>44.1019238833769</v>
+        <v>134.419228</v>
       </c>
       <c r="I7">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="J7">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>7978.656964088451</v>
+        <v>8122.881869462853</v>
       </c>
       <c r="R7">
-        <v>7978.656964088451</v>
+        <v>73105.93682516566</v>
       </c>
       <c r="S7">
-        <v>0.3402215320632059</v>
+        <v>0.3124480217969089</v>
       </c>
       <c r="T7">
-        <v>0.3402215320632059</v>
+        <v>0.3124480217969088</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>44.1019238833769</v>
+        <v>44.80640933333333</v>
       </c>
       <c r="H8">
-        <v>44.1019238833769</v>
+        <v>134.419228</v>
       </c>
       <c r="I8">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="J8">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>4461.446350524329</v>
+        <v>4978.016556168298</v>
       </c>
       <c r="R8">
-        <v>4461.446350524329</v>
+        <v>44802.14900551468</v>
       </c>
       <c r="S8">
-        <v>0.1902425582933432</v>
+        <v>0.1914802468437103</v>
       </c>
       <c r="T8">
-        <v>0.1902425582933432</v>
+        <v>0.1914802468437103</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>44.1019238833769</v>
+        <v>44.80640933333333</v>
       </c>
       <c r="H9">
-        <v>44.1019238833769</v>
+        <v>134.419228</v>
       </c>
       <c r="I9">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="J9">
-        <v>0.6002784914876869</v>
+        <v>0.5966153464595884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>1325.04214675316</v>
+        <v>1350.6013589201</v>
       </c>
       <c r="R9">
-        <v>1325.04214675316</v>
+        <v>12155.4122302809</v>
       </c>
       <c r="S9">
-        <v>0.05650172344114351</v>
+        <v>0.05195110917681087</v>
       </c>
       <c r="T9">
-        <v>0.05650172344114351</v>
+        <v>0.05195110917681087</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.28387293805889</v>
+        <v>2.566584666666667</v>
       </c>
       <c r="H10">
-        <v>2.28387293805889</v>
+        <v>7.699754</v>
       </c>
       <c r="I10">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="J10">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>16.16768421856576</v>
+        <v>60.66327587570245</v>
       </c>
       <c r="R10">
-        <v>16.16768421856576</v>
+        <v>545.9694828813221</v>
       </c>
       <c r="S10">
-        <v>0.0006894135591381439</v>
+        <v>0.002333423143126021</v>
       </c>
       <c r="T10">
-        <v>0.0006894135591381439</v>
+        <v>0.002333423143126021</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.28387293805889</v>
+        <v>2.566584666666667</v>
       </c>
       <c r="H11">
-        <v>2.28387293805889</v>
+        <v>7.699754</v>
       </c>
       <c r="I11">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="J11">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>413.184666739791</v>
+        <v>465.2920054407996</v>
       </c>
       <c r="R11">
-        <v>413.184666739791</v>
+        <v>4187.628048967196</v>
       </c>
       <c r="S11">
-        <v>0.01761879486434309</v>
+        <v>0.01789753550453985</v>
       </c>
       <c r="T11">
-        <v>0.01761879486434309</v>
+        <v>0.01789753550453985</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.28387293805889</v>
+        <v>2.566584666666667</v>
       </c>
       <c r="H12">
-        <v>2.28387293805889</v>
+        <v>7.699754</v>
       </c>
       <c r="I12">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="J12">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>231.0415439360173</v>
+        <v>285.1489586774229</v>
       </c>
       <c r="R12">
-        <v>231.0415439360173</v>
+        <v>2566.340628096806</v>
       </c>
       <c r="S12">
-        <v>0.009851947314185705</v>
+        <v>0.01096830281271848</v>
       </c>
       <c r="T12">
-        <v>0.009851947314185705</v>
+        <v>0.01096830281271848</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.28387293805889</v>
+        <v>2.566584666666667</v>
       </c>
       <c r="H13">
-        <v>2.28387293805889</v>
+        <v>7.699754</v>
       </c>
       <c r="I13">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="J13">
-        <v>0.03108616770626395</v>
+        <v>0.03417510626056863</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>68.61895432860375</v>
+        <v>77.36466255966356</v>
       </c>
       <c r="R13">
-        <v>68.61895432860375</v>
+        <v>696.281963036972</v>
       </c>
       <c r="S13">
-        <v>0.002926011968597013</v>
+        <v>0.002975844800184288</v>
       </c>
       <c r="T13">
-        <v>0.002926011968597013</v>
+        <v>0.002975844800184288</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>25.7272563013675</v>
+        <v>26.25121566666667</v>
       </c>
       <c r="H14">
-        <v>25.7272563013675</v>
+        <v>78.753647</v>
       </c>
       <c r="I14">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="J14">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>182.124911048747</v>
+        <v>620.4684220013634</v>
       </c>
       <c r="R14">
-        <v>182.124911048747</v>
+        <v>5584.215798012271</v>
       </c>
       <c r="S14">
-        <v>0.007766070974447382</v>
+        <v>0.02386642255263962</v>
       </c>
       <c r="T14">
-        <v>0.007766070974447382</v>
+        <v>0.02386642255263962</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>25.7272563013675</v>
+        <v>26.25121566666667</v>
       </c>
       <c r="H15">
-        <v>25.7272563013675</v>
+        <v>78.753647</v>
       </c>
       <c r="I15">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="J15">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>4654.42172542421</v>
+        <v>4759.040658754398</v>
       </c>
       <c r="R15">
-        <v>4654.42172542421</v>
+        <v>42831.36592878958</v>
       </c>
       <c r="S15">
-        <v>0.1984713088204578</v>
+        <v>0.1830573019988039</v>
       </c>
       <c r="T15">
-        <v>0.1984713088204578</v>
+        <v>0.1830573019988038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>25.7272563013675</v>
+        <v>26.25121566666667</v>
       </c>
       <c r="H16">
-        <v>25.7272563013675</v>
+        <v>78.753647</v>
       </c>
       <c r="I16">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="J16">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>2602.62509268907</v>
+        <v>2916.524402480826</v>
       </c>
       <c r="R16">
-        <v>2602.62509268907</v>
+        <v>26248.71962232743</v>
       </c>
       <c r="S16">
-        <v>0.1109797175647822</v>
+        <v>0.1121846032875775</v>
       </c>
       <c r="T16">
-        <v>0.1109797175647822</v>
+        <v>0.1121846032875775</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>25.7272563013675</v>
+        <v>26.25121566666667</v>
       </c>
       <c r="H17">
-        <v>25.7272563013675</v>
+        <v>78.753647</v>
       </c>
       <c r="I17">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="J17">
-        <v>0.350177888917971</v>
+        <v>0.3495454860807646</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>772.9753243822092</v>
+        <v>791.2914263881495</v>
       </c>
       <c r="R17">
-        <v>772.9753243822092</v>
+        <v>7121.622837493345</v>
       </c>
       <c r="S17">
-        <v>0.03296079155828378</v>
+        <v>0.03043715824174369</v>
       </c>
       <c r="T17">
-        <v>0.03296079155828378</v>
+        <v>0.03043715824174369</v>
       </c>
     </row>
   </sheetData>
